--- a/xlsx/_wiki_魔磁_intext.xlsx
+++ b/xlsx/_wiki_魔磁_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
   <si>
     <t>魔磁</t>
   </si>
@@ -942,12 +942,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1290,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4866,29 +4860,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="s">
-        <v>0</v>
-      </c>
-      <c r="C156" t="s">
-        <v>1</v>
-      </c>
-      <c r="D156" t="n">
-        <v>155</v>
-      </c>
-      <c r="E156" t="s">
-        <v>309</v>
-      </c>
-      <c r="F156" t="s">
-        <v>310</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/_wiki_魔磁_intext.xlsx
+++ b/xlsx/_wiki_魔磁_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="306">
   <si>
     <t>魔磁</t>
   </si>
@@ -23,925 +23,916 @@
     <t>https://zh.wikipedia.org/zh-cn/%E9%AD%94%E7%A3%81</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%96%AF%E7%90%86%E7%B3%BB%E5%88%97</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A1%9B%E6%96%AF%E7%90%86%E7%B3%BB%E5%88%97</t>
   </si>
   <si>
     <t>卫斯理系列</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%AF%B4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%8F%E8%AF%B4</t>
   </si>
   <si>
     <t>小说</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A6%99%E6%B8%AF</t>
   </si>
   <si>
     <t>香港</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%80%AA%E5%8C%A1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%80%AA%E5%8C%A1</t>
   </si>
   <si>
     <t>倪匡</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%9A%E7%89%A9%E9%A4%A8</t>
   </si>
   <si>
     <t>博物馆</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BD%9B%E6%B0%B4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%BD%9B%E6%B0%B4</t>
   </si>
   <si>
     <t>潜水</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E8%B4%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B9%8C%E8%B4%BC</t>
   </si>
   <si>
     <t>乌贼</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%8B%99</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%89%B9%E5%8B%99</t>
   </si>
   <si>
     <t>特务</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A3%81%E5%8A%9B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%A3%81%E5%8A%9B</t>
   </si>
   <si>
     <t>磁力</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
     <t>泰国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E9%9B%BB%E5%8F%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%95%86%E6%A5%AD%E9%9B%BB%E5%8F%B0</t>
   </si>
   <si>
     <t>商业电台</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B2%B5%E8%AA%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%B2%B5%E8%AA%9E</t>
   </si>
   <si>
     <t>粤语</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%B2%B4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%87%91%E8%B2%B4</t>
   </si>
   <si>
     <t>金贵</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%94%90%E5%AF%A7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%94%90%E5%AF%A7</t>
   </si>
   <si>
     <t>唐宁</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E5%AD%90%E8%81%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9C%B1%E5%AD%90%E8%81%B0</t>
   </si>
   <si>
     <t>朱子聪</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%96%AF%E7%90%86</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A1%9B%E6%96%AF%E7%90%86</t>
   </si>
   <si>
     <t>卫斯理</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%8C%A2%E4%BD%A9%E5%8D%BF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%8C%A2%E4%BD%A9%E5%8D%BF</t>
   </si>
   <si>
     <t>钱佩卿</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E7%B4%A0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%99%BD%E7%B4%A0</t>
   </si>
   <si>
     <t>白素</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E9%9B%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%9B%A7%E9%9B%84</t>
   </si>
   <si>
     <t>卢雄</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%85%8B%E4%B8%8A%E6%A0%A1_(%E8%A1%9B%E6%96%AF%E7%90%86%E7%B3%BB%E5%88%97)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%82%91%E5%85%8B%E4%B8%8A%E6%A0%A1_(%E8%A1%9B%E6%96%AF%E7%90%86%E7%B3%BB%E5%88%97)</t>
   </si>
   <si>
     <t>杰克上校 (卫斯理系列)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E6%B0%B8%E4%BF%A1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%99%B3%E6%B0%B8%E4%BF%A1</t>
   </si>
   <si>
     <t>陈永信</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%B3%E6%A3%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%99%B3%E6%A3%AE</t>
   </si>
   <si>
     <t>陈森</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%84%E9%8C%A6%E8%8F%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%94%84%E9%8C%A6%E8%8F%AF</t>
   </si>
   <si>
     <t>甄锦华</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%89%E4%BD%B3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%91%89%E4%BD%B3</t>
   </si>
   <si>
     <t>叶佳</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%B9%B4_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%96%B0%E5%B9%B4_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>新年 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E9%80%A0_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%89%B5%E9%80%A0_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>创造 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BD%B1%E5%AD%90_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BD%B1%E5%AD%90_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>影子 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%A8%E8%8A%B1%E5%8F%B0%E7%9F%B3_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%A8%E8%8A%B1%E5%8F%B0%E7%9F%B3_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>雨花台石 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%A1%9B%E6%96%AF%E7%90%86%E7%B3%BB%E5%88%97</t>
+    <t>https://zh.wikipedia.org/zh-cn/Template_talk:%E8%A1%9B%E6%96%AF%E7%90%86%E7%B3%BB%E5%88%97</t>
   </si>
   <si>
     <t>Template talk-卫斯理系列</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E5%B9%B4%E8%A1%9B%E6%96%AF%E7%90%86</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%91%E5%B9%B4%E8%A1%9B%E6%96%AF%E7%90%86</t>
   </si>
   <si>
     <t>少年卫斯理</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%91%BD%E7%9F%B3%E8%8A%B1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%91%BD%E7%9F%B3%E8%8A%B1</t>
   </si>
   <si>
     <t>钻石花</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%BA%95%E5%A5%87%E4%BA%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9C%B0%E5%BA%95%E5%A5%87%E4%BA%BA</t>
   </si>
   <si>
     <t>地底奇人</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%96%AF%E7%90%86%E8%88%87%E7%99%BD%E7%B4%A0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A1%9B%E6%96%AF%E7%90%86%E8%88%87%E7%99%BD%E7%B4%A0</t>
   </si>
   <si>
     <t>卫斯理与白素</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A6%96%E7%81%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A6%96%E7%81%AB</t>
   </si>
   <si>
     <t>妖火</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E8%8F%8C%E4%B9%8B%E6%AF%80%E6%BB%85</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%9C%9F%E8%8F%8C%E4%B9%8B%E6%AF%80%E6%BB%85</t>
   </si>
   <si>
     <t>真菌之毁灭</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E8%A1%80%E4%BA%BA_(%E8%A1%9B%E6%96%AF%E7%90%86%E7%B3%BB%E5%88%97)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%97%8D%E8%A1%80%E4%BA%BA_(%E8%A1%9B%E6%96%AF%E7%90%86%E7%B3%BB%E5%88%97)</t>
   </si>
   <si>
     <t>蓝血人 (卫斯理系列)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E6%AD%B8%E6%82%B2%E5%8A%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%9E%E6%AD%B8%E6%82%B2%E5%8A%87</t>
   </si>
   <si>
     <t>回归悲剧</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%9C%82%E9%9B%B2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%9C%82%E9%9B%B2</t>
   </si>
   <si>
     <t>蜂云</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E9%96%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A5%87%E9%96%80</t>
   </si>
   <si>
     <t>奇门</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%8F%E6%98%8E%E5%85%89</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%80%8F%E6%98%8E%E5%85%89</t>
   </si>
   <si>
     <t>透明光</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E7%A9%BA%E5%AF%86%E5%AE%A4%E4%B9%8B%E8%AC%8E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%9C%9F%E7%A9%BA%E5%AF%86%E5%AE%A4%E4%B9%8B%E8%AC%8E</t>
   </si>
   <si>
     <t>真空密室之谜</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B2%89%E8%88%B9_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B2%89%E8%88%B9_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>沉船 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%BF%83%E6%B4%AA%E7%88%90</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9C%B0%E5%BF%83%E6%B4%AA%E7%88%90</t>
   </si>
   <si>
     <t>地心洪炉</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%9C%96_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9C%B0%E5%9C%96_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>地图 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A2%E6%9E%97%E4%B9%8B%E7%A5%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8F%A2%E6%9E%97%E4%B9%8B%E7%A5%9E</t>
   </si>
   <si>
     <t>丛林之神</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E6%B0%B4_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A2%A8%E6%B0%B4_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>风水 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E6%AD%BB%E8%97%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%8D%E6%AD%BB%E8%97%A5</t>
   </si>
   <si>
     <t>不死药</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A6%8F%E5%BE%8B_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A6%8F%E5%BE%8B_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>规律 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E4%BA%86%E4%B8%80%E5%80%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%9A%E4%BA%86%E4%B8%80%E5%80%8B</t>
   </si>
   <si>
     <t>多了一个</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%AF%E9%9B%A2%E4%BA%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%94%AF%E9%9B%A2%E4%BA%BA</t>
   </si>
   <si>
     <t>支离人</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E6%AE%BC_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B2%9D%E6%AE%BC_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>贝壳 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%99%E5%A2%83_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BB%99%E5%A2%83_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>仙境 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E7%8E%89</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A5%87%E7%8E%89</t>
   </si>
   <si>
     <t>奇玉</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A8%AA%E5%AE%A2_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A8%AA%E5%AE%A2_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>访客 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%99%9B%E5%83%8F_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%99%9B%E5%83%8F_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>虚像 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A0%B1%E6%83%91_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A0%B1%E6%83%91_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>蛊惑 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%8D%E4%BE%86%E4%B8%80%E6%AC%A1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%86%8D%E4%BE%86%E4%B8%80%E6%AC%A1</t>
   </si>
   <si>
     <t>再来一次</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%90%E8%AE%8A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8B%90%E8%AE%8A</t>
   </si>
   <si>
     <t>狐变</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%9A%E5%AF%B6%E7%9B%86_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%81%9A%E5%AF%B6%E7%9B%86_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>聚宝盆 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%80%81%E8%B2%93</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%80%81%E8%B2%93</t>
   </si>
   <si>
     <t>老猫</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E5%A4%96%E9%87%91%E7%90%83</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%A9%E5%A4%96%E9%87%91%E7%90%83</t>
   </si>
   <si>
     <t>天外金球</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B1%8D%E8%AE%8A_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B1%8D%E8%AE%8A_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>尸变 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E6%B0%B4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B9%96%E6%B0%B4</t>
   </si>
   <si>
     <t>湖水</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AD%86%E5%8F%8B_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%AD%86%E5%8F%8B_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>笔友 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%88%E6%88%90_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%90%88%E6%88%90_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>合成 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%BB%88_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%A7%E5%BB%88_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>大厦 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%81%B2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8F%A4%E8%81%B2</t>
   </si>
   <si>
     <t>古声</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%A1%E9%A0%AD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%9B%A1%E9%A0%AD</t>
   </si>
   <si>
     <t>尽头</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%9B%E9%A0%AD%E8%A8%98</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%8F%9B%E9%A0%AD%E8%A8%98</t>
   </si>
   <si>
     <t>换头记</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%AD%90%E7%A9%BA%E9%96%93</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8E%9F%E5%AD%90%E7%A9%BA%E9%96%93</t>
   </si>
   <si>
     <t>原子空间</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%9C%88%E4%BA%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%B4%85%E6%9C%88%E4%BA%AE</t>
   </si>
   <si>
     <t>红月亮</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AC%BC%E5%AD%90_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%AC%BC%E5%AD%90_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>鬼子 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%92%B0_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%92%B0_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>环 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E9%AB%AE_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A0%AD%E9%AB%AE_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>头发 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9C%BC%E7%9D%9B_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%9C%BC%E7%9D%9B_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>眼睛 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E7%82%AD_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9C%A8%E7%82%AD_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>木炭 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%A3%E9%8E%96_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%80%A3%E9%8E%96_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>连锁 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%B7%E8%97%8F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%BF%B7%E8%97%8F</t>
   </si>
   <si>
     <t>迷藏</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%9B%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%A9%E6%9B%B8</t>
   </si>
   <si>
     <t>天书</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%A9%E5%85%B7_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8E%A9%E5%85%B7_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>玩具 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8B%E5%A4%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%8B%E5%A4%A2</t>
   </si>
   <si>
     <t>寻梦</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%82%99</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BE%8C%E5%82%99</t>
   </si>
   <si>
     <t>后备</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E7%A8%AE%E4%BA%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%AC%AC%E4%BA%8C%E7%A8%AE%E4%BA%BA</t>
   </si>
   <si>
     <t>第二种人</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%9C%E5%A2%93_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%9B%9C%E5%A2%93_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>盗墓 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%90%9C%E9%9D%88</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%90%9C%E9%9D%88</t>
   </si>
   <si>
     <t>搜灵</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8C%AB%E9%BB%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%8C%AB%E9%BB%9E</t>
   </si>
   <si>
     <t>茫点</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E4%BB%99_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%A5%9E%E4%BB%99_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>神仙 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%BD%E9%BE%8D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%BF%BD%E9%BE%8D</t>
   </si>
   <si>
     <t>追龙</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%9E%E5%A4%A9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B4%9E%E5%A4%A9</t>
   </si>
   <si>
     <t>洞天</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%BB%E4%BF%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B4%BB%E4%BF%91</t>
   </si>
   <si>
     <t>活俑</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%80%E7%85%A7_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8A%80%E7%85%A7_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>犀照 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%91%BD%E9%81%8B_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%91%BD%E9%81%8B_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>命运 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%83%E5%B9%B4_(%E5%B0%8F%E8%AF%B4)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%81%E4%B8%83%E5%B9%B4_(%E5%B0%8F%E8%AF%B4)</t>
   </si>
   <si>
     <t>十七年 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E5%AF%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%95%B0%E5%AF%B6</t>
   </si>
   <si>
     <t>异宝</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E5%88%91_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%A5%B5%E5%88%91_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>极刑 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E7%8E%8B_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%BB%E7%8E%8B_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>电王 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%AD%BB%E9%8E%96</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%94%9F%E6%AD%BB%E9%8E%96</t>
   </si>
   <si>
     <t>生死锁</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E9%87%91%E6%95%85%E4%BA%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%BB%83%E9%87%91%E6%95%85%E4%BA%8B</t>
   </si>
   <si>
     <t>黄金故事</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E6%88%B2_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%81%8A%E6%88%B2_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>游戏 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BB%A2%E5%A2%9F_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BB%A2%E5%A2%9F_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>废墟 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%A2%BC_(%E8%A1%9B%E6%96%AF%E7%90%86%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AF%86%E7%A2%BC_(%E8%A1%9B%E6%96%AF%E7%90%86%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>密码 (卫斯理小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%80%E7%B5%B1_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A1%80%E7%B5%B1_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>血统 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AC%8E%E8%B9%A4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%AC%8E%E8%B9%A4</t>
   </si>
   <si>
     <t>谜踪</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%98%9F%E7%A5%9E_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%98%9F%E7%A5%9E_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>瘟神 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%9B%E9%AD%82_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%8B%9B%E9%AD%82_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>招魂 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%83%8C%E5%8F%9B_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%83%8C%E5%8F%9B_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>背叛 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AC%BC%E6%B7%B7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%AC%BC%E6%B7%B7</t>
   </si>
   <si>
     <t>鬼混</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E6%87%89_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A0%B1%E6%87%89_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>报应 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%8C%AF%E6%89%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%8C%AF%E6%89%8B</t>
   </si>
   <si>
     <t>错手</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E7%9B%B8_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%9C%9F%E7%9B%B8_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>真相 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%92%E8%AA%93</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%AF%92%E8%AA%93</t>
   </si>
   <si>
     <t>毒誓</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%BC%E5%91%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%8B%BC%E5%91%BD</t>
   </si>
   <si>
     <t>拼命</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%80%AA%E7%89%A9_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%80%AA%E7%89%A9_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>怪物 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E9%9A%AA_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%8E%A2%E9%9A%AA_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>探险 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B9%BC%E7%BA%8C%E6%8E%A2%E9%9A%AA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%B9%BC%E7%BA%8C%E6%8E%A2%E9%9A%AA</t>
   </si>
   <si>
     <t>继续探险</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%88%E5%A5%97_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9C%88%E5%A5%97_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>圈套 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%83%88%E7%81%AB%E5%A5%B3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%83%88%E7%81%AB%E5%A5%B3</t>
   </si>
   <si>
     <t>烈火女</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%A7%98%E5%AF%86</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%A7%E7%A7%98%E5%AF%86</t>
   </si>
   <si>
     <t>大秘密</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A6%8D%E6%A0%B9_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%A6%8D%E6%A0%B9_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>祸根 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%81%BA%E5%82%B3_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>遗传 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%99%B6%E5%AE%AE_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B0%B4%E6%99%B6%E5%AE%AE_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>水晶宫 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%AD%A6%E5%99%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%96%B0%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
     <t>新武器</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AE%97%E5%B8%B3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%AE%97%E5%B8%B3</t>
   </si>
   <si>
     <t>算账</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%BB%E8%B7%AF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B4%BB%E8%B7%AF</t>
   </si>
   <si>
     <t>活路</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E7%A8%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9B%99%E7%A8%8B</t>
   </si>
   <si>
     <t>双程</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%B7%E5%91%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B2%B7%E5%91%BD</t>
   </si>
   <si>
     <t>买命</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%A3%E5%91%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B3%A3%E5%91%BD</t>
   </si>
   <si>
     <t>卖命</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E8%AA%AA_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%82%B3%E8%AA%AA_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>传说 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%B3%AD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B1%AA%E8%B3%AD</t>
   </si>
   <si>
     <t>豪赌</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%AA%E4%BE%86%E8%BA%AB%E4%BB%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9C%AA%E4%BE%86%E8%BA%AB%E4%BB%BD</t>
   </si>
   <si>
     <t>未来身份</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E9%AD%82%E6%80%AA%E7%89%A9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%A7%BB%E9%AD%82%E6%80%AA%E7%89%A9</t>
   </si>
   <si>
     <t>移魂怪物</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%9D%A2%E7%B5%84%E5%90%88</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BA%BA%E9%9D%A2%E7%B5%84%E5%90%88</t>
   </si>
   <si>
     <t>人面组合</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E6%80%A7%E9%9B%A3%E7%A7%BB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9C%AC%E6%80%A7%E9%9B%A3%E7%A7%BB</t>
   </si>
   <si>
     <t>本性难移</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%89%93%E9%9B%B7%E5%8A%88</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%A9%E6%89%93%E9%9B%B7%E5%8A%88</t>
   </si>
   <si>
     <t>天打雷劈</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E9%96%8B%E5%AF%86%E7%A2%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A7%A3%E9%96%8B%E5%AF%86%E7%A2%BC</t>
   </si>
   <si>
     <t>解开密码</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%81%B7%E5%A4%A9%E6%8F%9B%E6%97%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%81%B7%E5%A4%A9%E6%8F%9B%E6%97%A5</t>
   </si>
   <si>
     <t>偷天换日</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E5%8B%95%E6%95%91%E6%98%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A1%8C%E5%8B%95%E6%95%91%E6%98%9F</t>
   </si>
   <si>
     <t>行动救星</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B9%BE%E5%9D%A4%E6%8C%AA%E7%A7%BB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B9%BE%E5%9D%A4%E6%8C%AA%E7%A7%BB</t>
   </si>
   <si>
     <t>乾坤挪移</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%A5%9E%E5%AF%B6%E5%BA%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B2%A1%E7%A5%9E%E5%AF%B6%E5%BA%AB</t>
   </si>
   <si>
     <t>财神宝库</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%8D%8A%E4%B8%80%E5%8D%8A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%80%E5%8D%8A%E4%B8%80%E5%8D%8A</t>
   </si>
   <si>
     <t>一半一半</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BA%AB%E5%A4%96%E5%8C%96%E8%BA%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%BA%AB%E5%A4%96%E5%8C%96%E8%BA%AB</t>
   </si>
   <si>
     <t>身外化身</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%B8%B8%E9%81%AD%E9%81%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9D%9E%E5%B8%B8%E9%81%AD%E9%81%87</t>
   </si>
   <si>
     <t>非常遭遇</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%80%8B%E5%9C%B0%E6%96%B9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%80%E5%80%8B%E5%9C%B0%E6%96%B9</t>
   </si>
   <si>
     <t>一个地方</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A0%88%E5%BD%8C%E8%8A%A5%E5%AD%90</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A0%88%E5%BD%8C%E8%8A%A5%E5%AD%90</t>
   </si>
   <si>
     <t>须弥芥子</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E5%8E%BB%E6%B4%BB%E4%BE%86</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%AD%BB%E5%8E%BB%E6%B4%BB%E4%BE%86</t>
   </si>
   <si>
     <t>死去活来</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%AA%E9%99%90%E8%80%81%E5%8F%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8F%AA%E9%99%90%E8%80%81%E5%8F%8B</t>
   </si>
   <si>
     <t>只限老友</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E5%B9%B4%E5%8D%AB%E6%96%AF%E7%90%86%E7%B3%BB%E5%88%97</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%91%E5%B9%B4%E5%8D%AB%E6%96%AF%E7%90%86%E7%B3%BB%E5%88%97</t>
   </si>
   <si>
     <t>少年卫斯理系列</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%96%AF%E7%90%86%E5%9B%9E%E6%86%B6%E9%8C%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A1%9B%E6%96%AF%E7%90%86%E5%9B%9E%E6%86%B6%E9%8C%84</t>
   </si>
   <si>
     <t>卫斯理回忆录</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E4%B9%A6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BE%E4%B9%A6</t>
   </si>
   <si>
     <t>图书</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%82%E5%BF%97</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%82%E5%BF%97</t>
   </si>
   <si>
     <t>杂志</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%9F%E5%88%8A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9C%9F%E5%88%8A</t>
   </si>
   <si>
     <t>期刊</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%89%88%E7%89%A9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%87%BA%E7%89%88%E7%89%A9</t>
   </si>
   <si>
     <t>出版物</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E7%A3%81</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G155"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4814,52 +4805,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:7">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="s">
-        <v>0</v>
-      </c>
-      <c r="C154" t="s">
-        <v>1</v>
-      </c>
-      <c r="D154" t="n">
-        <v>153</v>
-      </c>
-      <c r="E154" t="s">
-        <v>306</v>
-      </c>
-      <c r="F154" t="s">
-        <v>307</v>
-      </c>
-      <c r="G154" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="s">
-        <v>0</v>
-      </c>
-      <c r="C155" t="s">
-        <v>1</v>
-      </c>
-      <c r="D155" t="n">
-        <v>154</v>
-      </c>
-      <c r="E155" t="s">
-        <v>306</v>
-      </c>
-      <c r="F155" t="s">
-        <v>308</v>
-      </c>
-      <c r="G155" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
